--- a/planilha/fevereiro/Escala ASO1 - Lagoinha - 1° Turno - Fevereiro.xlsx
+++ b/planilha/fevereiro/Escala ASO1 - Lagoinha - 1° Turno - Fevereiro.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Escala ASO1 - Lagoinha - 1° Turno - Fevereiro</t>
   </si>
@@ -94,31 +94,28 @@
     <t>Felipe Augusto</t>
   </si>
   <si>
+    <t>Barbara Andrade</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Larissa Elias</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Paula Pessoa</t>
+  </si>
+  <si>
+    <t>Victor Santos</t>
+  </si>
+  <si>
     <t>Diego Salerno</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Larissa Elias</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Paula Pessoa</t>
-  </si>
-  <si>
-    <t>Victor Santos</t>
-  </si>
-  <si>
-    <t>Barbara Andrade</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>29/01/20</t>
+    <t>31/01/20</t>
   </si>
 </sst>
 </file>
@@ -1985,14 +1982,16 @@
         <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s"/>
       <c r="D13" s="5" t="s"/>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="5" t="s"/>
+      <c r="F13" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G13" s="4" t="s">
         <v>19</v>
       </c>
@@ -2009,18 +2008,20 @@
       <c r="L13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="M13" s="5" t="s"/>
       <c r="N13" s="5" t="s"/>
       <c r="O13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="5" t="s"/>
+      <c r="P13" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="Q13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="5" t="s"/>
+      <c r="R13" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="S13" s="5" t="s"/>
       <c r="T13" s="5" t="s">
         <v>8</v>
@@ -2031,15 +2032,15 @@
       <c r="V13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="W13" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="W13" s="5" t="s"/>
       <c r="X13" s="5" t="s"/>
       <c r="Y13" s="5" t="s"/>
       <c r="Z13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AA13" s="5" t="s"/>
+      <c r="AA13" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="AB13" s="4" t="s">
         <v>19</v>
       </c>
@@ -2495,7 +2496,7 @@
     <row r="29" spans="1:48"/>
     <row r="30" spans="1:48">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
